--- a/Emag_Altex_LowestPrice/Excel/Registru1.xlsx
+++ b/Emag_Altex_LowestPrice/Excel/Registru1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruCilea\Documents\UiPath\Emag_Altex_LowestPrice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F67CD-B48B-4B47-80B6-E00D1322DFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62780CEA-47D5-44AB-ABC7-C714DB6EF4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" firstSheet="0" activeTab="0" xr2:uid="{04B4E693-8612-4217-B1D6-9AD455D05CA0}"/>
   </x:bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
     <x:t>ProductName</x:t>
   </x:si>
@@ -73,19 +73,16 @@
     <x:t>Emag</x:t>
   </x:si>
   <x:si>
+    <x:t>Televizor LG Platy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Combina frigorifica Beko RCNA406E40DZXBN</x:t>
+  </x:si>
+  <x:si>
     <x:t>Televizor LG 32LM6370PLA</x:t>
   </x:si>
   <x:si>
-    <x:t>1199.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Combina frigorifica Beko RCNA406E40DZXBN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2199.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Televizor LG sexy</x:t>
+    <x:t>1099.99</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,8 +490,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <x:selection activeCell="G6" sqref="G6 G6:G6"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A5" sqref="A5 A5:A5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,7 +504,7 @@
     <x:col min="6" max="16384" width="9.140625" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -524,7 +521,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A2" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -538,7 +535,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:5" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -553,47 +550,42 @@
       </x:c>
       <x:c r="E3" s="4" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:5" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="B4" s="4" t="s"/>
+      <x:c r="C4" s="4" t="s"/>
       <x:c r="D4" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="4" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:5" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="6" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="C5" s="4" t="s"/>
       <x:c r="D5" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="4" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:7" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:5" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s"/>
-      <x:c r="C6" s="4" t="s"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D6" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s"/>
-      <x:c r="G6" s="4" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
